--- a/United Plumbing Group/38435/zres_siteapp_NEW.xlsx
+++ b/United Plumbing Group/38435/zres_siteapp_NEW.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\United Plumbing Group\38435\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4167D7C-E2B9-4A14-BE1E-E36E3DA6E82C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773B5357-B22C-498B-B68F-2DDD41FD1A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10305" yWindow="2490" windowWidth="26730" windowHeight="17955" xr2:uid="{484357A6-E8EE-4CFD-B5D3-FC42F38F2F05}"/>
+    <workbookView xWindow="1155" yWindow="1590" windowWidth="26730" windowHeight="18090" xr2:uid="{484357A6-E8EE-4CFD-B5D3-FC42F38F2F05}"/>
   </bookViews>
   <sheets>
     <sheet name="zres_siteapp_NEW" sheetId="1" r:id="rId1"/>
@@ -49,9 +49,6 @@
     <t>checklist</t>
   </si>
   <si>
-    <t>Commisioning</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -257,6 +254,9 @@
   </si>
   <si>
     <t>Test Water</t>
+  </si>
+  <si>
+    <t>Commissioning</t>
   </si>
 </sst>
 </file>
@@ -1153,8 +1153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC82424-48FB-42A9-BBD7-D5F7213BFFEF}">
   <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1197,62 +1197,62 @@
         <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1264,89 +1264,89 @@
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1358,71 +1358,71 @@
         <v>7</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1434,179 +1434,179 @@
         <v>7</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -1618,71 +1618,71 @@
         <v>7</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -1694,53 +1694,53 @@
         <v>7</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -1752,44 +1752,44 @@
         <v>7</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -1801,98 +1801,98 @@
         <v>7</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F66" s="3"/>
       <c r="G66" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
